--- a/biology/Microbiologie/Marginopora/Marginopora.xlsx
+++ b/biology/Microbiologie/Marginopora/Marginopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marginopore
 Marginopora, le Marginopore, est un genre de Foraminifères marins de la famille des Soritidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des eucaryotes unicellulaires contenus dans des cellules poriformes, petites, rondes, serrées, éparses dans les sinuosités, très-fines et tortueuses, qui « guillochent » (c'est-à-dire ornent d’un ensemble de lignes, de traits ondés qui s’entrelacent ou se croisent avec symétrie) la circonférence d'un polypier calcaire, libre, un peu irrégulier, discoïde, concave et concentriquement strié en dessus comme en dessous et plus épais sur les bords[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des eucaryotes unicellulaires contenus dans des cellules poriformes, petites, rondes, serrées, éparses dans les sinuosités, très-fines et tortueuses, qui « guillochent » (c'est-à-dire ornent d’un ensemble de lignes, de traits ondés qui s’entrelacent ou se croisent avec symétrie) la circonférence d'un polypier calcaire, libre, un peu irrégulier, discoïde, concave et concentriquement strié en dessus comme en dessous et plus épais sur les bords. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (11 octobre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (11 octobre 2023) :
 Marginopora anomala Lacroix, 1940
 Marginopora charlottensis Renema, 2018
 Marginopora orpheusensis Renema, 2018
@@ -579,10 +595,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Marginopora Quoy &amp; Gaimard in Blainville, 1830[2]. Le genre se nomme « Marginopore » en français. Le Marginopore vertébral (Marginopora vertebralis) est l'espèce type[1].
-Marginopora a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Marginopora Quoy &amp; Gaimard in Blainville, 1830. Le genre se nomme « Marginopore » en français. Le Marginopore vertébral (Marginopora vertebralis) est l'espèce type.
+Marginopora a pour synonyme :
 Orbitolites (Marginopora) Yabe &amp; Hanzawa, 1929</t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>H. M. Ducrotay de Blainville, Dictionnaire des Sciences Naturelles, vol. 60, Paris, F. G. Levrault, 1830 (lire en ligne ), p. 377</t>
         </is>
